--- a/EdiListMaker/Resources/template_210_list.xlsx
+++ b/EdiListMaker/Resources/template_210_list.xlsx
@@ -767,7 +767,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -781,7 +781,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -848,7 +848,7 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="16"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
